--- a/dataAnalysis/errClassesVJ.xlsx
+++ b/dataAnalysis/errClassesVJ.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="10">
   <si>
     <t>C</t>
   </si>
@@ -50,36 +50,12 @@
   <si>
     <t>RevNonFace</t>
   </si>
-  <si>
-    <t>Top10 A</t>
-  </si>
-  <si>
-    <t>Top10 B</t>
-  </si>
-  <si>
-    <t>Top10 C</t>
-  </si>
-  <si>
-    <t>Top10 D</t>
-  </si>
-  <si>
-    <t>Top200 A</t>
-  </si>
-  <si>
-    <t>Top200 B</t>
-  </si>
-  <si>
-    <t>Top200 C</t>
-  </si>
-  <si>
-    <t>Top200 D</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -103,13 +79,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -128,7 +97,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -174,12 +143,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -202,6 +172,7 @@
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -224,6 +195,7 @@
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -553,15 +525,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N201"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -580,26 +552,8 @@
       <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -618,29 +572,8 @@
       <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>10</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -659,29 +592,8 @@
       <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3">
-        <v>17</v>
-      </c>
-      <c r="J3">
-        <v>11</v>
-      </c>
-      <c r="K3">
-        <v>35</v>
-      </c>
-      <c r="L3">
-        <v>37</v>
-      </c>
-      <c r="M3">
-        <v>119</v>
-      </c>
-      <c r="N3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -700,29 +612,8 @@
       <c r="F4" t="s">
         <v>2</v>
       </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4">
-        <v>7</v>
-      </c>
-      <c r="J4">
-        <v>8</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>10</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -741,29 +632,8 @@
       <c r="F5" t="s">
         <v>2</v>
       </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5">
-        <v>137</v>
-      </c>
-      <c r="J5">
-        <v>107</v>
-      </c>
-      <c r="K5">
-        <v>19</v>
-      </c>
-      <c r="L5">
-        <v>163</v>
-      </c>
-      <c r="M5">
-        <v>57</v>
-      </c>
-      <c r="N5">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -782,29 +652,8 @@
       <c r="F6" t="s">
         <v>2</v>
       </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -823,29 +672,8 @@
       <c r="F7" t="s">
         <v>3</v>
       </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7">
-        <v>46</v>
-      </c>
-      <c r="J7">
-        <v>82</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -864,29 +692,8 @@
       <c r="F8" t="s">
         <v>2</v>
       </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>8</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -905,29 +712,8 @@
       <c r="F9" t="s">
         <v>3</v>
       </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>146</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>24</v>
-      </c>
-      <c r="N9">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -947,7 +733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -967,7 +753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -987,7 +773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1007,7 +793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1027,7 +813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1047,7 +833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>0</v>
       </c>
